--- a/templates/dataplant/PRIDE/Measurement_PRIDE_minimal.xlsx
+++ b/templates/dataplant/PRIDE/Measurement_PRIDE_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\PRIDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\PRIDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C6623-3693-4CA8-A734-882AF77F26DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F023CA0-EDCC-4000-95E6-3ACB25CD6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Source Name</t>
   </si>
@@ -318,13 +318,25 @@
   </si>
   <si>
     <t>Measurement</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
+  </si>
+  <si>
+    <t>DPBO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,12 +359,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -584,15 +590,15 @@
     <tableColumn id="6" xr3:uid="{F968D075-683D-4BF7-A641-08B71326B367}" name="Parameter [Quantification method]" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{D32F0CA7-F713-42BA-A767-785977D44EF3}" name="Term Source REF (PRIDE:0000307)" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{6BDFB932-1C3F-43B4-BF2A-B099FFBC9571}" name="Term Accession Number (PRIDE:0000307)" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{D7B1000C-B7B7-4FA4-9FB7-E4B71FA2A893}" name="Characteristic [Fixed modification]" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{B716B882-9C05-4C01-B9B7-8C4F501C8876}" name="Term Source REF (MS:1003021)" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{ADD88D35-0AFD-424F-B9B4-F932263DB158}" name="Term Accession Number (MS:1003021)" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{74DAEA9D-4C6C-4607-B4AD-16108E25AC74}" name="Characteristic [Variable modification]" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{4C737CC3-30BE-428F-9A14-95490461E201}" name="Term Source REF (MS:1003022)" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{D82A75E4-1CD7-483D-9364-A2708C6D83B3}" name="Term Accession Number (MS:1003022)" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{C42BEE92-F219-4E33-A521-BD08EC9824D5}" name="Component [instrument model]" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{EC2A0F92-A3F3-4F07-BFB3-455811007B3A}" name="Term Source REF (MS:1000031)" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{548BA194-F056-41D0-8029-55B194D44443}" name="Term Accession Number (MS:1000031)" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{D7B1000C-B7B7-4FA4-9FB7-E4B71FA2A893}" name="Characteristic [Fixed modification]" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{B716B882-9C05-4C01-B9B7-8C4F501C8876}" name="Term Source REF (MS:1003021)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{ADD88D35-0AFD-424F-B9B4-F932263DB158}" name="Term Accession Number (MS:1003021)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{74DAEA9D-4C6C-4607-B4AD-16108E25AC74}" name="Characteristic [Variable modification]" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{4C737CC3-30BE-428F-9A14-95490461E201}" name="Term Source REF (MS:1003022)" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{D82A75E4-1CD7-483D-9364-A2708C6D83B3}" name="Term Accession Number (MS:1003022)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C42BEE92-F219-4E33-A521-BD08EC9824D5}" name="Component [instrument model]" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{EC2A0F92-A3F3-4F07-BFB3-455811007B3A}" name="Term Source REF (MS:1000031)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{548BA194-F056-41D0-8029-55B194D44443}" name="Term Accession Number (MS:1000031)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{944B0EFD-F98C-4459-BEF5-0019EB1E9ACE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -930,29 +936,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.5546875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1062,18 +1068,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB16C2-6354-43DA-A4D8-DA3E4663939A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1121,13 +1129,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1135,25 +1143,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1173,33 +1185,41 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1215,13 +1235,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1229,19 +1249,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1249,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -1273,13 +1293,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>

--- a/templates/dataplant/PRIDE/Measurement_PRIDE_minimal.xlsx
+++ b/templates/dataplant/PRIDE/Measurement_PRIDE_minimal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\PRIDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F023CA0-EDCC-4000-95E6-3ACB25CD6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DAFD93-27A2-4FE8-B2B6-FA42F04BA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Source Name</t>
   </si>
@@ -1066,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB16C2-6354-43DA-A4D8-DA3E4663939A}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,7 +1081,7 @@
     <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1129,13 +1129,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1159,67 +1159,58 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>

--- a/templates/dataplant/PRIDE/Measurement_PRIDE_minimal.xlsx
+++ b/templates/dataplant/PRIDE/Measurement_PRIDE_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\PRIDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DAFD93-27A2-4FE8-B2B6-FA42F04BA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1EF2A5-4C34-4D81-AF9A-567D4C42AC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Source Name</t>
   </si>
@@ -290,12 +290,6 @@
     <t>Proteomics</t>
   </si>
   <si>
-    <t>Mass spectrometry</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Maus</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>Data-Steward</t>
   </si>
   <si>
-    <t>Measurement</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
   </si>
   <si>
@@ -330,6 +321,18 @@
   </si>
   <si>
     <t>DPBO</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>EFO:0001444</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,7 +1159,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,24 +1176,26 @@
         <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1198,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1215,7 +1220,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,7 +1228,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1262,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1278,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1286,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
